--- a/docs/Extension-UKCore-TreatmentCategory-1-0-0.xlsx
+++ b/docs/Extension-UKCore-TreatmentCategory-1-0-0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
   <si>
     <t>Path</t>
   </si>
@@ -209,6 +209,10 @@
     <t>Extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -244,6 +248,10 @@
   </si>
   <si>
     <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-TreatmentCategory-1-0-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
 </sst>
 </file>
@@ -845,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>50</v>
@@ -876,16 +884,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -893,7 +901,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -950,12 +958,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -978,13 +986,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1011,13 +1019,13 @@
         <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>37</v>
@@ -1035,7 +1043,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1047,10 +1055,10 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
